--- a/Dk/Autókölcsönző.xlsx
+++ b/Dk/Autókölcsönző.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Gyarmati Gábor 10.B\pythonsuli\Dk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Helyi_munkakönyvtár\Gyarmati Gábor 10.B\pythonsuligabor\Dk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA0400-CD66-4494-B8CF-5FC17B36EE12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF7983-5264-45F6-8716-A7BC0AEDC224}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{4B6CDE78-833D-47D3-8909-3F2EE67ECA75}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -127,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -135,17 +124,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,6 +170,1027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$F$2:$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>CAB135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CCA231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BCA111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CCC543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AAA567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>BAC444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AAC767</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ABC123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ABC987</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9C2-4BD6-B06E-E2023917A9EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713B1EA5-2B26-4C52-8B48-4508C76CA2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,25 +1493,25 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F2" sqref="F2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,13 +1524,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
@@ -505,7 +1540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -515,8 +1550,20 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
+      <c r="D2">
+        <f>C2-B2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUMIF($A$2:$A$51,F2,$D$2:$D$51)</f>
+        <v>23</v>
+      </c>
+      <c r="H2" s="1">
+        <f>COUNTIF($A$2:$A$51,F2)</f>
+        <v>7</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -525,7 +1572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -535,8 +1582,20 @@
       <c r="C3">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="D3">
+        <f t="shared" ref="D3:D51" si="0">C3-B3+1</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1">
+        <f>SUMIF($A$2:$A$51,F3,$D$2:$D$51)</f>
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <f>COUNTIF($A$2:$A$51,F3)</f>
+        <v>7</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -545,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -555,8 +1614,20 @@
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUMIF($A$2:$A$51,F4,$D$2:$D$51)</f>
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <f>COUNTIF($A$2:$A$51,F4)</f>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -565,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -575,8 +1646,20 @@
       <c r="C5">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUMIF($A$2:$A$51,F5,$D$2:$D$51)</f>
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <f>COUNTIF($A$2:$A$51,F5)</f>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -585,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -595,8 +1678,20 @@
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUMIF($A$2:$A$51,F6,$D$2:$D$51)</f>
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <f>COUNTIF($A$2:$A$51,F6)</f>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -605,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -615,8 +1710,20 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <f>SUMIF($A$2:$A$51,F7,$D$2:$D$51)</f>
         <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <f>COUNTIF($A$2:$A$51,F7)</f>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -625,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -635,8 +1742,20 @@
       <c r="C8">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUMIF($A$2:$A$51,F8,$D$2:$D$51)</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <f>COUNTIF($A$2:$A$51,F8)</f>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -645,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -655,8 +1774,20 @@
       <c r="C9">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <f>SUMIF($A$2:$A$51,F9,$D$2:$D$51)</f>
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
+        <f>COUNTIF($A$2:$A$51,F9)</f>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -665,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -675,8 +1806,20 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>15</v>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1">
+        <f>SUMIF($A$2:$A$51,F10,$D$2:$D$51)</f>
+        <v>13</v>
+      </c>
+      <c r="H10" s="1">
+        <f>COUNTIF($A$2:$A$51,F10)</f>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -695,6 +1838,10 @@
       <c r="C11">
         <v>23</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J11">
         <v>10</v>
       </c>
@@ -712,8 +1859,18 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12">
+        <f>MAX(K2:K31)</f>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>11</v>
@@ -732,7 +1889,17 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13">
+        <f>INDEX(J2:J31,MATCH(H12,K2:K31,0))</f>
         <v>19</v>
       </c>
       <c r="J13">
@@ -752,6 +1919,10 @@
       <c r="C14">
         <v>28</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J14">
         <v>13</v>
       </c>
@@ -769,6 +1940,10 @@
       <c r="C15">
         <v>6</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J15">
         <v>14</v>
       </c>
@@ -786,6 +1961,10 @@
       <c r="C16">
         <v>25</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="J16">
         <v>15</v>
       </c>
@@ -803,6 +1982,10 @@
       <c r="C17">
         <v>14</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J17">
         <v>16</v>
       </c>
@@ -820,6 +2003,10 @@
       <c r="C18">
         <v>10</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="J18">
         <v>17</v>
       </c>
@@ -837,6 +2024,10 @@
       <c r="C19">
         <v>29</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J19">
         <v>18</v>
       </c>
@@ -854,6 +2045,10 @@
       <c r="C20">
         <v>12</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J20">
         <v>19</v>
       </c>
@@ -871,6 +2066,10 @@
       <c r="C21">
         <v>13</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J21">
         <v>20</v>
       </c>
@@ -888,6 +2087,10 @@
       <c r="C22">
         <v>17</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J22">
         <v>21</v>
       </c>
@@ -905,6 +2108,10 @@
       <c r="C23">
         <v>15</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J23">
         <v>22</v>
       </c>
@@ -922,6 +2129,10 @@
       <c r="C24">
         <v>30</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J24">
         <v>23</v>
       </c>
@@ -939,6 +2150,10 @@
       <c r="C25">
         <v>20</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="J25">
         <v>24</v>
       </c>
@@ -956,6 +2171,10 @@
       <c r="C26">
         <v>16</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J26">
         <v>25</v>
       </c>
@@ -973,6 +2192,10 @@
       <c r="C27">
         <v>15</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="J27">
         <v>26</v>
       </c>
@@ -990,6 +2213,10 @@
       <c r="C28">
         <v>13</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J28">
         <v>27</v>
       </c>
@@ -1007,6 +2234,10 @@
       <c r="C29">
         <v>22</v>
       </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="J29">
         <v>28</v>
       </c>
@@ -1024,6 +2255,10 @@
       <c r="C30">
         <v>14</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J30">
         <v>29</v>
       </c>
@@ -1041,6 +2276,10 @@
       <c r="C31">
         <v>15</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="J31">
         <v>30</v>
       </c>
@@ -1058,8 +2297,12 @@
       <c r="C32">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1069,8 +2312,12 @@
       <c r="C33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1080,8 +2327,12 @@
       <c r="C34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1091,8 +2342,12 @@
       <c r="C35">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -1102,8 +2357,12 @@
       <c r="C36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1113,8 +2372,12 @@
       <c r="C37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +2387,12 @@
       <c r="C38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1135,8 +2402,12 @@
       <c r="C39">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1146,8 +2417,12 @@
       <c r="C40">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1157,8 +2432,12 @@
       <c r="C41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -1168,8 +2447,12 @@
       <c r="C42">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1179,8 +2462,12 @@
       <c r="C43">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1190,8 +2477,12 @@
       <c r="C44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1201,8 +2492,12 @@
       <c r="C45">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +2507,12 @@
       <c r="C46">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1223,8 +2522,12 @@
       <c r="C47">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1234,8 +2537,12 @@
       <c r="C48">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -1245,8 +2552,12 @@
       <c r="C49">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -1256,8 +2567,12 @@
       <c r="C50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1267,14 +2582,60 @@
       <c r="C51">
         <v>28</v>
       </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="F2:H10">
-    <sortCondition ref="H2:H10"/>
-    <sortCondition ref="G2:G10"/>
+    <sortCondition descending="1" ref="H2:H10"/>
+    <sortCondition descending="1" ref="G2:G10"/>
     <sortCondition ref="F2:F10"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="F2:G10">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>G2&gt;15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K31">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B404C9B0-7E3D-4AD0-BFAF-A50B349B76EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B404C9B0-7E3D-4AD0-BFAF-A50B349B76EE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K2:K31</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>